--- a/Listas de precios/minorista/BISAGRA T.xlsx
+++ b/Listas de precios/minorista/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRA T.xlsx
+++ b/Listas de precios/minorista/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRA T.xlsx
+++ b/Listas de precios/minorista/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
